--- a/analysis/data/derived_data/spheroids_sites_China.xlsx
+++ b/analysis/data/derived_data/spheroids_sites_China.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2AE3C3-8CD6-4473-BFF7-0F70AC3968E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CE4FDC-93A8-4226-BFFF-7B66C88EC717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{053E33C0-B08E-4B37-BD2E-9C4C3A69F9A4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{053E33C0-B08E-4B37-BD2E-9C4C3A69F9A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chinese" sheetId="1" r:id="rId1"/>
-    <sheet name="English" sheetId="2" r:id="rId2"/>
+    <sheet name="English" sheetId="2" r:id="rId1"/>
+    <sheet name="Chinese" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="340">
   <si>
     <t>遗址类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,10 +979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>choushuihe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,10 +1078,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QSY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>limestone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1178,10 +1170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>collection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hanzhong, shanxi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1230,13 +1218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>core and flake industry to LP</t>
-  </si>
-  <si>
-    <t>core and flake industry to LP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yanggao, shanxi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1284,10 +1265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Microlithic Industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hezhigou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1344,10 +1321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lava; limestone; quartz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1377,6 +1350,30 @@
   </si>
   <si>
     <t>d=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core and flake industry to MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP-Mousterian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP-Microlithic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resemble QSY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1790,1496 +1787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E280DE-62B4-4450-A6E2-C4C1FD0F388C}">
-  <dimension ref="A1:AH32"/>
-  <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>223</v>
-      </c>
-      <c r="O2" t="s">
-        <v>224</v>
-      </c>
-      <c r="P2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" t="s">
-        <v>89</v>
-      </c>
-      <c r="T2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" t="s">
-        <v>292</v>
-      </c>
-      <c r="V3" t="s">
-        <v>103</v>
-      </c>
-      <c r="W3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T5" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12">
-        <v>478</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U13" t="s">
-        <v>16</v>
-      </c>
-      <c r="X13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>11</v>
-      </c>
-      <c r="P14">
-        <v>10</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>7</v>
-      </c>
-      <c r="U14">
-        <v>6</v>
-      </c>
-      <c r="Z14">
-        <v>13</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>21</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF14">
-        <v>2</v>
-      </c>
-      <c r="AH14">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" t="s">
-        <v>126</v>
-      </c>
-      <c r="N15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" t="s">
-        <v>81</v>
-      </c>
-      <c r="U15" t="s">
-        <v>100</v>
-      </c>
-      <c r="X15" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>69</v>
-      </c>
-      <c r="S16" t="s">
-        <v>60</v>
-      </c>
-      <c r="T16" t="s">
-        <v>80</v>
-      </c>
-      <c r="U16" t="s">
-        <v>99</v>
-      </c>
-      <c r="X16" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" t="s">
-        <v>136</v>
-      </c>
-      <c r="N18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF18">
-        <v>9</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>490</v>
-      </c>
-      <c r="D19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19">
-        <v>1035</v>
-      </c>
-      <c r="H19">
-        <v>720</v>
-      </c>
-      <c r="K19">
-        <v>1000</v>
-      </c>
-      <c r="N19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19">
-        <v>1000</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>71</v>
-      </c>
-      <c r="T19" t="s">
-        <v>83</v>
-      </c>
-      <c r="X19" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB19">
-        <v>968</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD19">
-        <v>878</v>
-      </c>
-      <c r="AF19">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>16</v>
-      </c>
-      <c r="R20" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" t="s">
-        <v>16</v>
-      </c>
-      <c r="T20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U20" t="s">
-        <v>16</v>
-      </c>
-      <c r="V20" t="s">
-        <v>16</v>
-      </c>
-      <c r="W20" t="s">
-        <v>16</v>
-      </c>
-      <c r="X20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>9</v>
-      </c>
-      <c r="L21">
-        <v>8</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-      <c r="U21">
-        <v>4</v>
-      </c>
-      <c r="V21">
-        <v>3</v>
-      </c>
-      <c r="W21">
-        <v>2</v>
-      </c>
-      <c r="Z21">
-        <v>5</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>61</v>
-      </c>
-      <c r="R22" t="s">
-        <v>50</v>
-      </c>
-      <c r="S22" t="s">
-        <v>92</v>
-      </c>
-      <c r="T22" t="s">
-        <v>87</v>
-      </c>
-      <c r="U22" t="s">
-        <v>98</v>
-      </c>
-      <c r="V22" t="s">
-        <v>105</v>
-      </c>
-      <c r="W22" t="s">
-        <v>111</v>
-      </c>
-      <c r="X22" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>228</v>
-      </c>
-      <c r="J23" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>69</v>
-      </c>
-      <c r="R23" t="s">
-        <v>51</v>
-      </c>
-      <c r="S23" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" t="s">
-        <v>84</v>
-      </c>
-      <c r="U23" t="s">
-        <v>99</v>
-      </c>
-      <c r="V23" t="s">
-        <v>51</v>
-      </c>
-      <c r="X23" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>18</v>
-      </c>
-      <c r="R24" t="s">
-        <v>18</v>
-      </c>
-      <c r="S24" t="s">
-        <v>18</v>
-      </c>
-      <c r="T24" t="s">
-        <v>18</v>
-      </c>
-      <c r="V24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>229</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>46</v>
-      </c>
-      <c r="R25" t="s">
-        <v>52</v>
-      </c>
-      <c r="T25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26">
-        <v>700</v>
-      </c>
-      <c r="P26" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>71</v>
-      </c>
-      <c r="R26">
-        <v>1683</v>
-      </c>
-      <c r="T26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" t="s">
-        <v>219</v>
-      </c>
-      <c r="F27" t="s">
-        <v>230</v>
-      </c>
-      <c r="G27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>65</v>
-      </c>
-      <c r="R27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S27" t="s">
-        <v>91</v>
-      </c>
-      <c r="T27" t="s">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s">
-        <v>94</v>
-      </c>
-      <c r="W27" t="s">
-        <v>110</v>
-      </c>
-      <c r="X27" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>72</v>
-      </c>
-      <c r="T28" t="s">
-        <v>75</v>
-      </c>
-      <c r="U28" t="s">
-        <v>95</v>
-      </c>
-      <c r="W28" t="s">
-        <v>112</v>
-      </c>
-      <c r="X28" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="D29" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="D30" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
-      <c r="Z31" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
-      <c r="Z32" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D6320C-8CA1-47ED-9D71-05CC7042BD87}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3312,7 +1824,7 @@
         <v>233</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>235</v>
@@ -3320,11 +1832,13 @@
       <c r="H1" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>237</v>
@@ -3333,762 +1847,2247 @@
         <v>239</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F3" s="8">
         <v>8</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>255</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="8">
         <v>4</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="8">
         <v>98</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="F7" s="8">
         <v>10</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="8">
         <v>4</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="F10" s="8">
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F11" s="8">
         <v>9</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F12" s="8">
         <v>2</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F13" s="8">
         <v>11</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="F14" s="8">
         <v>6</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F15" s="8">
         <v>3</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="F17" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1059</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="8">
-        <v>10</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="H18" s="8" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="F19" s="8">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="F20" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="F21" s="8">
-        <v>1059</v>
+        <v>10</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="F22" s="8">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="F23" s="8">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F24" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="F25" s="8">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>247</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="F26" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="F27" s="8">
         <v>2</v>
       </c>
       <c r="G27" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F28" s="8">
         <v>5</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F29" s="8">
         <v>169</v>
       </c>
       <c r="G29" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I29" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E280DE-62B4-4450-A6E2-C4C1FD0F388C}">
+  <dimension ref="A1:AH32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O2" t="s">
+        <v>224</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>289</v>
+      </c>
+      <c r="V3" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12">
+        <v>478</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>13</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>21</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>69</v>
+      </c>
+      <c r="S16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" t="s">
+        <v>99</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF18">
+        <v>9</v>
+      </c>
+      <c r="AH18" t="s">
         <v>333</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I29" s="8"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>490</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19">
+        <v>1035</v>
+      </c>
+      <c r="H19">
+        <v>720</v>
+      </c>
+      <c r="K19">
+        <v>1000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19">
+        <v>1000</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="T19" t="s">
+        <v>83</v>
+      </c>
+      <c r="X19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB19">
+        <v>968</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD19">
+        <v>878</v>
+      </c>
+      <c r="AF19">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" t="s">
+        <v>16</v>
+      </c>
+      <c r="X20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22" t="s">
+        <v>92</v>
+      </c>
+      <c r="T22" t="s">
+        <v>87</v>
+      </c>
+      <c r="U22" t="s">
+        <v>98</v>
+      </c>
+      <c r="V22" t="s">
+        <v>105</v>
+      </c>
+      <c r="W22" t="s">
+        <v>111</v>
+      </c>
+      <c r="X22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" t="s">
+        <v>99</v>
+      </c>
+      <c r="V23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X23" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" t="s">
+        <v>18</v>
+      </c>
+      <c r="V24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>700</v>
+      </c>
+      <c r="P26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R26">
+        <v>1683</v>
+      </c>
+      <c r="T26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>65</v>
+      </c>
+      <c r="R27" t="s">
+        <v>53</v>
+      </c>
+      <c r="S27" t="s">
+        <v>91</v>
+      </c>
+      <c r="T27" t="s">
+        <v>74</v>
+      </c>
+      <c r="U27" t="s">
+        <v>94</v>
+      </c>
+      <c r="W27" t="s">
+        <v>110</v>
+      </c>
+      <c r="X27" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>72</v>
+      </c>
+      <c r="T28" t="s">
+        <v>75</v>
+      </c>
+      <c r="U28" t="s">
+        <v>95</v>
+      </c>
+      <c r="W28" t="s">
+        <v>112</v>
+      </c>
+      <c r="X28" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="D29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="Z31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="Z32" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
